--- a/reports/spambase/cross.xlsx
+++ b/reports/spambase/cross.xlsx
@@ -547,64 +547,64 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9016035219725873</v>
+        <v>0.910092288399039</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9211460591607651</v>
+        <v>0.9133648361004683</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9184927976104446</v>
+        <v>0.9196748160311379</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9185907163848341</v>
+        <v>0.9198735024022379</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9214975448636428</v>
+        <v>0.9211387240356084</v>
       </c>
       <c r="G2" t="n">
-        <v>0.9220772510478393</v>
+        <v>0.9258617040686006</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9328109192079781</v>
+        <v>0.9342464270510249</v>
       </c>
       <c r="I2" t="n">
-        <v>0.9274560389266273</v>
+        <v>0.9298081858541627</v>
       </c>
       <c r="J2" t="n">
-        <v>0.9489608944467994</v>
+        <v>0.9447422989967501</v>
       </c>
       <c r="K2" t="n">
-        <v>0.9596759526906585</v>
+        <v>0.9548819558474732</v>
       </c>
       <c r="L2" t="n">
-        <v>0.9580310256780845</v>
+        <v>0.9532801191996597</v>
       </c>
       <c r="M2" t="n">
-        <v>0.9583745844775258</v>
+        <v>0.9547837377607494</v>
       </c>
       <c r="N2" t="n">
-        <v>0.9515426734492016</v>
+        <v>0.9482165818849796</v>
       </c>
       <c r="O2" t="n">
-        <v>0.9594557859999034</v>
+        <v>0.9569774372073223</v>
       </c>
       <c r="P2" t="n">
-        <v>0.9594311557546853</v>
+        <v>0.9561630481055768</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.9221230747491876</v>
+        <v>0.9324508972728558</v>
       </c>
       <c r="R2" t="n">
-        <v>0.9258846413258177</v>
+        <v>0.9368603661132398</v>
       </c>
       <c r="S2" t="n">
-        <v>0.9330304234715997</v>
+        <v>0.9426284741227271</v>
       </c>
       <c r="T2" t="n">
-        <v>0.9302565399624223</v>
+        <v>0.9402622392507449</v>
       </c>
       <c r="U2" t="n">
-        <v>0.9595284121019414</v>
+        <v>0.9561135437572217</v>
       </c>
     </row>
     <row r="3">
@@ -614,64 +614,64 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8773720130084491</v>
+        <v>0.8842961379255057</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9214981099003871</v>
+        <v>0.9124478142495513</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9198603768980976</v>
+        <v>0.9182770138697071</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9186279515267104</v>
+        <v>0.9191195291736194</v>
       </c>
       <c r="F3" t="n">
-        <v>0.8998133744164281</v>
+        <v>0.8990043030972648</v>
       </c>
       <c r="G3" t="n">
-        <v>0.9220693138998761</v>
+        <v>0.9255891265981937</v>
       </c>
       <c r="H3" t="n">
-        <v>0.9321317403130135</v>
+        <v>0.933321451333389</v>
       </c>
       <c r="I3" t="n">
-        <v>0.9274029450247425</v>
+        <v>0.9293546078689281</v>
       </c>
       <c r="J3" t="n">
-        <v>0.9348883649273236</v>
+        <v>0.9291129843829731</v>
       </c>
       <c r="K3" t="n">
-        <v>0.9595897209592263</v>
+        <v>0.9547260194720788</v>
       </c>
       <c r="L3" t="n">
-        <v>0.9574952199424905</v>
+        <v>0.9526915808868418</v>
       </c>
       <c r="M3" t="n">
-        <v>0.9587031605312597</v>
+        <v>0.9544526146734265</v>
       </c>
       <c r="N3" t="n">
-        <v>0.9385482834861943</v>
+        <v>0.9348148156954668</v>
       </c>
       <c r="O3" t="n">
-        <v>0.9595493021618711</v>
+        <v>0.9571544741240189</v>
       </c>
       <c r="P3" t="n">
-        <v>0.9593740850662601</v>
+        <v>0.956044393537772</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.8981439875869007</v>
+        <v>0.9137746064297173</v>
       </c>
       <c r="R3" t="n">
-        <v>0.9254275671963668</v>
+        <v>0.9364919046366945</v>
       </c>
       <c r="S3" t="n">
-        <v>0.9312043520726664</v>
+        <v>0.9421744944103946</v>
       </c>
       <c r="T3" t="n">
-        <v>0.9287178124270372</v>
+        <v>0.9397955356188024</v>
       </c>
       <c r="U3" t="n">
-        <v>0.9594967887708963</v>
+        <v>0.9561954275079475</v>
       </c>
     </row>
     <row r="4">
@@ -681,64 +681,64 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8738525956993003</v>
+        <v>0.9068673998616422</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9176042001877321</v>
+        <v>0.9225506500763312</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9165950307251933</v>
+        <v>0.9344966001851384</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9146535539700187</v>
+        <v>0.9281690268843193</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9079498323104027</v>
+        <v>0.9168752623487229</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9222058123167052</v>
+        <v>0.9290909528743083</v>
       </c>
       <c r="H4" t="n">
-        <v>0.9412010885720808</v>
+        <v>0.9461909279510965</v>
       </c>
       <c r="I4" t="n">
-        <v>0.927940790646704</v>
+        <v>0.9350384072659136</v>
       </c>
       <c r="J4" t="n">
-        <v>0.9475022461065504</v>
+        <v>0.9487043959412707</v>
       </c>
       <c r="K4" t="n">
-        <v>0.9602859269177045</v>
+        <v>0.9578724914895649</v>
       </c>
       <c r="L4" t="n">
-        <v>0.9654022725984821</v>
+        <v>0.9645404137030164</v>
       </c>
       <c r="M4" t="n">
-        <v>0.9622543343652148</v>
+        <v>0.9613424956887821</v>
       </c>
       <c r="N4" t="n">
-        <v>0.9414206062952677</v>
+        <v>0.9374593211098921</v>
       </c>
       <c r="O4" t="n">
-        <v>0.9573454332483365</v>
+        <v>0.9536544214054961</v>
       </c>
       <c r="P4" t="n">
-        <v>0.9609222894695848</v>
+        <v>0.958507808846116</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.9293253704980318</v>
+        <v>0.928854727198883</v>
       </c>
       <c r="R4" t="n">
-        <v>0.9315748962041478</v>
+        <v>0.9419979001845937</v>
       </c>
       <c r="S4" t="n">
-        <v>0.9565884857409255</v>
+        <v>0.9494370988213761</v>
       </c>
       <c r="T4" t="n">
-        <v>0.9491092139370587</v>
+        <v>0.9470924915839608</v>
       </c>
       <c r="U4" t="n">
-        <v>0.9602331616982188</v>
+        <v>0.9548696029407185</v>
       </c>
     </row>
     <row r="5">
@@ -748,64 +748,64 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.8831006621030185</v>
+        <v>0.8637313432835821</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9267238964551339</v>
+        <v>0.9030098034433987</v>
       </c>
       <c r="D5" t="n">
-        <v>0.92298971312663</v>
+        <v>0.9031590498951374</v>
       </c>
       <c r="E5" t="n">
-        <v>0.923521201584082</v>
+        <v>0.9106023508754818</v>
       </c>
       <c r="F5" t="n">
-        <v>0.8923353159016945</v>
+        <v>0.8823880597014926</v>
       </c>
       <c r="G5" t="n">
-        <v>0.9223423162368397</v>
+        <v>0.9224842705945473</v>
       </c>
       <c r="H5" t="n">
-        <v>0.9235714285714286</v>
+        <v>0.9211059357167245</v>
       </c>
       <c r="I5" t="n">
-        <v>0.9271655558775237</v>
+        <v>0.9240662342096282</v>
       </c>
       <c r="J5" t="n">
-        <v>0.9236275389967455</v>
+        <v>0.9107462686567165</v>
       </c>
       <c r="K5" t="n">
-        <v>0.9586414565826331</v>
+        <v>0.9518750914500319</v>
       </c>
       <c r="L5" t="n">
-        <v>0.9507884188158022</v>
+        <v>0.9413778471443205</v>
       </c>
       <c r="M5" t="n">
-        <v>0.9560426929392447</v>
+        <v>0.9478851875335319</v>
       </c>
       <c r="N5" t="n">
-        <v>0.9360268207833015</v>
+        <v>0.9326865671641792</v>
       </c>
       <c r="O5" t="n">
-        <v>0.9619337390128464</v>
+        <v>0.9609505925962054</v>
       </c>
       <c r="P5" t="n">
-        <v>0.9580066164396793</v>
+        <v>0.9538009071843147</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.8695808551228817</v>
+        <v>0.899776119402985</v>
       </c>
       <c r="R5" t="n">
-        <v>0.9196863228049843</v>
+        <v>0.9314139394234993</v>
       </c>
       <c r="S5" t="n">
-        <v>0.90746232975949</v>
+        <v>0.9352570355557722</v>
       </c>
       <c r="T5" t="n">
-        <v>0.909526707234618</v>
+        <v>0.9328929912695705</v>
       </c>
       <c r="U5" t="n">
-        <v>0.9589365401332948</v>
+        <v>0.9577449641515878</v>
       </c>
     </row>
   </sheetData>

--- a/reports/spambase/cross.xlsx
+++ b/reports/spambase/cross.xlsx
@@ -1,38 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
+    <sheet name="Arkusz1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211" fullCalcOnLoad="1"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -40,18 +45,94 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -130,7 +211,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -165,7 +245,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -341,13 +420,306 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:U4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Metric</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>DT</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>DT_BrdSMOTE</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>DT_GAN</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>DT_SMOTE</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>LR</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>LR_BrdSMOTE</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>LR_GAN</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>LR_SMOTE</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>RF</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>RF_BrdSMOTE</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>RF_GAN</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>RF_SMOTE</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>XGB</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>XGB_BrdSMOTE</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>XGB_GAN</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>XGB_RF</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>XGB_RF_BrdSMOTE</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>XGB_RF_GAN</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>XGB_RF_SMOTE</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>XGB_SMOTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>f1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.8817329899796708</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.9082389637768706</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.9136141908823814</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.9181280094483703</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.9011362373133872</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.9214570193613665</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.9322116136291644</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.9268274593808613</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.9248860337717146</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.9476208025549078</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.9500676605634095</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.9501778019212774</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.934751469537727</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0.9546564842464703</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0.9543757900277748</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0.9118474120370298</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0.9342284520621175</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0.9409234452571725</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0.9391582929771094</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0.9528845195750063</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>precision</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.9099713647332023</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.9155698657871635</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.9297171498200322</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.9270811118164107</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.916186669429598</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.9232498814791805</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.9430538078933784</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.9320919220386351</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.9459182750194496</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.9543083767268739</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.9635957158072418</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.9575922201051941</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.9406300251592618</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0.9543149762603048</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0.9586335751807219</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0.9294548531637838</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0.9414923791614862</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0.9510063972148231</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0.9450111191556719</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0.9546171480256954</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.8565264995239606</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.9014547738693467</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.8986</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.9097786432160804</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.8871120279276421</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.9199962311557789</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.9219015075376883</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.9219040201005023</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.9053237067597588</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr"/>
+      <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr"/>
+      <c r="S4" t="inlineStr"/>
+      <c r="T4" t="inlineStr"/>
+      <c r="U4" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/reports/spambase/cross.xlsx
+++ b/reports/spambase/cross.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U4"/>
+  <dimension ref="A1:U5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -543,181 +543,270 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>f1</t>
+          <t>accuracy</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.8817329899796708</v>
+        <v>0.9064711389006642</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9082389637768706</v>
+        <v>0.9089473684210525</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9136141908823814</v>
+        <v>0.9150626566416039</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9181280094483703</v>
+        <v>0.9189223057644109</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9011362373133872</v>
+        <v>0.9206952098346757</v>
       </c>
       <c r="G2" t="n">
-        <v>0.9214570193613665</v>
+        <v>0.9216290726817045</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9322116136291644</v>
+        <v>0.9330325814536341</v>
       </c>
       <c r="I2" t="n">
-        <v>0.9268274593808613</v>
+        <v>0.927268170426065</v>
       </c>
       <c r="J2" t="n">
-        <v>0.9248860337717146</v>
+        <v>0.9401413028119258</v>
       </c>
       <c r="K2" t="n">
-        <v>0.9476208025549078</v>
+        <v>0.9480200501253132</v>
       </c>
       <c r="L2" t="n">
-        <v>0.9500676605634095</v>
+        <v>0.9508020050125313</v>
       </c>
       <c r="M2" t="n">
-        <v>0.9501778019212774</v>
+        <v>0.9505764411027569</v>
       </c>
       <c r="N2" t="n">
-        <v>0.934751469537727</v>
+        <v>0.9471478027412745</v>
       </c>
       <c r="O2" t="n">
-        <v>0.9546564842464703</v>
+        <v>0.9546365914786966</v>
       </c>
       <c r="P2" t="n">
-        <v>0.9543757900277748</v>
+        <v>0.9545864661654135</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.9118474120370298</v>
+        <v>0.9295104740709341</v>
       </c>
       <c r="R2" t="n">
-        <v>0.9342284520621175</v>
+        <v>0.9347619047619047</v>
       </c>
       <c r="S2" t="n">
-        <v>0.9409234452571725</v>
+        <v>0.941578947368421</v>
       </c>
       <c r="T2" t="n">
-        <v>0.9391582929771094</v>
+        <v>0.939548872180451</v>
       </c>
       <c r="U2" t="n">
-        <v>0.9528845195750063</v>
+        <v>0.9529824561403508</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>precision</t>
+          <t>f1</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9099713647332023</v>
+        <v>0.8817329899796708</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9155698657871635</v>
+        <v>0.9082389637768706</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9297171498200322</v>
+        <v>0.9136141908823814</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9270811118164107</v>
+        <v>0.9181280094483703</v>
       </c>
       <c r="F3" t="n">
-        <v>0.916186669429598</v>
+        <v>0.9011362373133872</v>
       </c>
       <c r="G3" t="n">
-        <v>0.9232498814791805</v>
+        <v>0.9214570193613665</v>
       </c>
       <c r="H3" t="n">
-        <v>0.9430538078933784</v>
+        <v>0.9322116136291644</v>
       </c>
       <c r="I3" t="n">
-        <v>0.9320919220386351</v>
+        <v>0.9268274593808613</v>
       </c>
       <c r="J3" t="n">
-        <v>0.9459182750194496</v>
+        <v>0.9248860337717146</v>
       </c>
       <c r="K3" t="n">
-        <v>0.9543083767268739</v>
+        <v>0.9476208025549078</v>
       </c>
       <c r="L3" t="n">
-        <v>0.9635957158072418</v>
+        <v>0.9500676605634095</v>
       </c>
       <c r="M3" t="n">
-        <v>0.9575922201051941</v>
+        <v>0.9501778019212774</v>
       </c>
       <c r="N3" t="n">
-        <v>0.9406300251592618</v>
+        <v>0.934751469537727</v>
       </c>
       <c r="O3" t="n">
-        <v>0.9543149762603048</v>
+        <v>0.9546564842464703</v>
       </c>
       <c r="P3" t="n">
-        <v>0.9586335751807219</v>
+        <v>0.9543757900277748</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.9294548531637838</v>
+        <v>0.9118474120370298</v>
       </c>
       <c r="R3" t="n">
-        <v>0.9414923791614862</v>
+        <v>0.9342284520621175</v>
       </c>
       <c r="S3" t="n">
-        <v>0.9510063972148231</v>
+        <v>0.9409234452571725</v>
       </c>
       <c r="T3" t="n">
-        <v>0.9450111191556719</v>
+        <v>0.9391582929771094</v>
       </c>
       <c r="U3" t="n">
-        <v>0.9546171480256954</v>
+        <v>0.9528845195750063</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
+          <t>precision</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.9099713647332023</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.9155698657871635</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.9297171498200322</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.9270811118164107</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.916186669429598</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.9232498814791805</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.9430538078933784</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.9320919220386351</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.9459182750194496</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.9543083767268739</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.9635957158072418</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.9575922201051941</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.9406300251592618</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.9543149762603048</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.9586335751807219</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0.9294548531637838</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0.9414923791614862</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0.9510063972148231</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0.9450111191556719</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0.9546171480256954</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
           <t>recall</t>
         </is>
       </c>
-      <c r="B4" t="n">
+      <c r="B5" t="n">
         <v>0.8565264995239606</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>0.9014547738693467</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>0.8986</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E5" t="n">
         <v>0.9097786432160804</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F5" t="n">
         <v>0.8871120279276421</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G5" t="n">
         <v>0.9199962311557789</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H5" t="n">
         <v>0.9219015075376883</v>
       </c>
-      <c r="I4" t="n">
+      <c r="I5" t="n">
         <v>0.9219040201005023</v>
       </c>
-      <c r="J4" t="n">
+      <c r="J5" t="n">
         <v>0.9053237067597588</v>
       </c>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="inlineStr"/>
-      <c r="T4" t="inlineStr"/>
-      <c r="U4" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>0.9412540201005024</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.9371409547738694</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.9431110552763817</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.9294271659790541</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0.955188944723618</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0.9503226130653266</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0.8956315455410981</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0.927370351758794</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0.9312761306532663</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0.9336361809045225</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0.9513261306532663</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
